--- a/assets/knowledge-base/data/External-Insurance-FAQs.xlsx
+++ b/assets/knowledge-base/data/External-Insurance-FAQs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\aztechtalk\aztechday-bedrock-agent\agent\knowledge-base-assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\aztechtalk\aztechday-azure-ai\assets\knowledge-base\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37CEFE3-5AB9-4E6D-BCAC-38A879773374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0C9A84-AEB1-46ED-B494-EB7D5F0DD20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39090" yWindow="4095" windowWidth="14400" windowHeight="8415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Insurance-FAQs" sheetId="1" r:id="rId1"/>
@@ -34,54 +34,33 @@
     <t>What factors determine my car insurance premium?</t>
   </si>
   <si>
-    <t>Your premium is influenced by various factors including your driving record, age, location, type of vehicle, coverage options, and more. To determine your premium, we can create a personalized quote for you.</t>
-  </si>
-  <si>
-    <t>https://www.anycompany.com/premuims</t>
-  </si>
-  <si>
     <t>What types of coverage do you offer?</t>
   </si>
   <si>
     <t>We offer a range of coverage options, including liability, collision, comprehensive, uninsured/underinsured motorist, and medical payments.</t>
   </si>
   <si>
-    <t>https://www.anycompany.com/coverage</t>
-  </si>
-  <si>
     <t>How can I lower my car insurance rates?</t>
   </si>
   <si>
     <t>There are several ways to potentially reduce your rates, including maintaining a good driving record, taking defensive driving courses, bundling policies, and qualifying for discounts. You can speak to an agent about your specific rates.</t>
   </si>
   <si>
-    <t>https://www.anycompany.com/rates</t>
-  </si>
-  <si>
     <t>Can I add a new driver to my policy?</t>
   </si>
   <si>
     <t xml:space="preserve">Yes, you can add new drivers to your policy. The premium might change based on the new driver's age, driving history, and other factors. </t>
   </si>
   <si>
-    <t>https://www.anycompany.com/policy</t>
-  </si>
-  <si>
     <t>What should I do after an accident?</t>
   </si>
   <si>
     <t>First, ensure everyone's safety, then exchange information with other parties involved. Take photos if possible and file a police report. Contact us immediately to report the incident and start your claim process.</t>
   </si>
   <si>
-    <t>https://www.anycompany.com/claims</t>
-  </si>
-  <si>
     <t>What is a deductible and how does it work?</t>
   </si>
   <si>
-    <t>https://www.anycompany.com/deductibles</t>
-  </si>
-  <si>
     <t>Frequently Asked Questions</t>
   </si>
   <si>
@@ -92,13 +71,34 @@
   </si>
   <si>
     <t>In addition to third-party liability, a comprehensive insurance plan protects your vehicle against risks like theft, vandalism, and fire. It also covers you if your car or bike suffers any loss or damage due to natural or man-made disasters such as floods, cyclones, earthquakes, riots, and so on.</t>
+  </si>
+  <si>
+    <t>https://www.abcompany.com/premuims</t>
+  </si>
+  <si>
+    <t>https://www.abcompany.com/coverage</t>
+  </si>
+  <si>
+    <t>https://www.abcompany.com/rates</t>
+  </si>
+  <si>
+    <t>https://www.abcompany.com/policy</t>
+  </si>
+  <si>
+    <t>https://www.abcompany.com/claims</t>
+  </si>
+  <si>
+    <t>https://www.abcompany.com/deductibles</t>
+  </si>
+  <si>
+    <t>Car insurance premiums for AB Company can be determined by factors such as the driver's age, experience, and driving record, as well as the vehicle's make, model, and usage. Additional considerations include the location, coverage levels, claim history, and environmental factors. Discounts and telematics data may also influence the premium.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,6 +229,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -531,7 +539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -574,11 +582,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -612,6 +622,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -935,19 +946,19 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="129.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="87.58203125" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -966,76 +977,84 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{E373E39E-A2B6-47C8-AAD4-63B9D183454C}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{D76E579C-F3F7-410C-B823-2041F6C08FCB}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{D76BAD4E-9ECF-40D7-A660-5420466B878F}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{44FABCF3-8234-4E39-92FA-89B4903EFBCF}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{082B9CD6-9FEF-4F01-BEC5-36C8A0567396}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{A35F2DFF-FBDA-4600-85C9-A0481D734022}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 Internal&amp;1#_x000D_</oddHeader>
